--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2052,28 +2052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>586.7951180921019</v>
+        <v>681.6768229878487</v>
       </c>
       <c r="AB2" t="n">
-        <v>802.8789681471715</v>
+        <v>932.7003026709273</v>
       </c>
       <c r="AC2" t="n">
-        <v>726.253326274914</v>
+        <v>843.6846948371096</v>
       </c>
       <c r="AD2" t="n">
-        <v>586795.1180921019</v>
+        <v>681676.8229878487</v>
       </c>
       <c r="AE2" t="n">
-        <v>802878.9681471714</v>
+        <v>932700.3026709273</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.45297388569112e-06</v>
+        <v>2.094700745789973e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.92013888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>726253.326274914</v>
+        <v>843684.6948371097</v>
       </c>
     </row>
     <row r="3">
@@ -2158,28 +2158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>364.522338656299</v>
+        <v>424.9560027332345</v>
       </c>
       <c r="AB3" t="n">
-        <v>498.7555453401492</v>
+        <v>581.4435506753042</v>
       </c>
       <c r="AC3" t="n">
-        <v>451.155016100689</v>
+        <v>525.9513942600012</v>
       </c>
       <c r="AD3" t="n">
-        <v>364522.338656299</v>
+        <v>424956.0027332345</v>
       </c>
       <c r="AE3" t="n">
-        <v>498755.5453401493</v>
+        <v>581443.5506753043</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.023533717041815e-06</v>
+        <v>2.917256550830899e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.01736111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>451155.016100689</v>
+        <v>525951.3942600011</v>
       </c>
     </row>
     <row r="4">
@@ -2264,28 +2264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>300.7196343015044</v>
+        <v>361.1532088698888</v>
       </c>
       <c r="AB4" t="n">
-        <v>411.4578704652599</v>
+        <v>494.1457533308667</v>
       </c>
       <c r="AC4" t="n">
-        <v>372.1889087928029</v>
+        <v>446.9851761708886</v>
       </c>
       <c r="AD4" t="n">
-        <v>300719.6343015044</v>
+        <v>361153.2088698888</v>
       </c>
       <c r="AE4" t="n">
-        <v>411457.8704652599</v>
+        <v>494145.7533308667</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.249677921183577e-06</v>
+        <v>3.243280602423887e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.50694444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>372188.9087928029</v>
+        <v>446985.1761708886</v>
       </c>
     </row>
     <row r="5">
@@ -2370,28 +2370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>272.8139743014232</v>
+        <v>333.1622080152359</v>
       </c>
       <c r="AB5" t="n">
-        <v>373.2761153423171</v>
+        <v>455.8472310857262</v>
       </c>
       <c r="AC5" t="n">
-        <v>337.6511667903638</v>
+        <v>412.3418111365107</v>
       </c>
       <c r="AD5" t="n">
-        <v>272813.9743014232</v>
+        <v>333162.208015236</v>
       </c>
       <c r="AE5" t="n">
-        <v>373276.1153423171</v>
+        <v>455847.2310857262</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.339431856361995e-06</v>
+        <v>3.372675656806706e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.99189814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>337651.1667903638</v>
+        <v>412341.8111365107</v>
       </c>
     </row>
     <row r="6">
@@ -2476,28 +2476,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>273.541550608002</v>
+        <v>333.8897843218148</v>
       </c>
       <c r="AB6" t="n">
-        <v>374.2716173433794</v>
+        <v>456.8427330867885</v>
       </c>
       <c r="AC6" t="n">
-        <v>338.5516594776407</v>
+        <v>413.2423038237876</v>
       </c>
       <c r="AD6" t="n">
-        <v>273541.550608002</v>
+        <v>333889.7843218148</v>
       </c>
       <c r="AE6" t="n">
-        <v>374271.6173433794</v>
+        <v>456842.7330867885</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.339431856361995e-06</v>
+        <v>3.372675656806706e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.99189814814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>338551.6594776406</v>
+        <v>413242.3038237875</v>
       </c>
     </row>
   </sheetData>
@@ -2773,28 +2773,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>452.7959121904118</v>
+        <v>528.4674728394185</v>
       </c>
       <c r="AB2" t="n">
-        <v>619.5353430047367</v>
+        <v>723.0725106783514</v>
       </c>
       <c r="AC2" t="n">
-        <v>560.407759391679</v>
+        <v>654.0634850978514</v>
       </c>
       <c r="AD2" t="n">
-        <v>452795.9121904118</v>
+        <v>528467.4728394186</v>
       </c>
       <c r="AE2" t="n">
-        <v>619535.3430047367</v>
+        <v>723072.5106783514</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.722029217618638e-06</v>
+        <v>2.520985993657718e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.25810185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>560407.759391679</v>
+        <v>654063.4850978514</v>
       </c>
     </row>
     <row r="3">
@@ -2879,28 +2879,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>291.9134056859222</v>
+        <v>359.0821124168031</v>
       </c>
       <c r="AB3" t="n">
-        <v>399.4087999700332</v>
+        <v>491.311987793428</v>
       </c>
       <c r="AC3" t="n">
-        <v>361.2897846746639</v>
+        <v>444.4218612391282</v>
       </c>
       <c r="AD3" t="n">
-        <v>291913.4056859222</v>
+        <v>359082.1124168031</v>
       </c>
       <c r="AE3" t="n">
-        <v>399408.7999700332</v>
+        <v>491311.987793428</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.25782717774468e-06</v>
+        <v>3.305374051124036e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.92361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>361289.7846746639</v>
+        <v>444421.8612391282</v>
       </c>
     </row>
     <row r="4">
@@ -2985,28 +2985,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>265.4610987929443</v>
+        <v>315.9657296315135</v>
       </c>
       <c r="AB4" t="n">
-        <v>363.2155866856429</v>
+        <v>432.318250706034</v>
       </c>
       <c r="AC4" t="n">
-        <v>328.5508008686419</v>
+        <v>391.0584036211249</v>
       </c>
       <c r="AD4" t="n">
-        <v>265461.0987929443</v>
+        <v>315965.7296315135</v>
       </c>
       <c r="AE4" t="n">
-        <v>363215.5866856429</v>
+        <v>432318.250706034</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.399681616386851e-06</v>
+        <v>3.513043612880734e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.10185185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>328550.8008686419</v>
+        <v>391058.4036211249</v>
       </c>
     </row>
   </sheetData>
@@ -3282,28 +3282,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>236.2155794720092</v>
+        <v>290.5013492656705</v>
       </c>
       <c r="AB2" t="n">
-        <v>323.2005769293343</v>
+        <v>397.4767620803121</v>
       </c>
       <c r="AC2" t="n">
-        <v>292.3547674821533</v>
+        <v>359.5421377695056</v>
       </c>
       <c r="AD2" t="n">
-        <v>236215.5794720092</v>
+        <v>290501.3492656705</v>
       </c>
       <c r="AE2" t="n">
-        <v>323200.5769293343</v>
+        <v>397476.7620803121</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.496369150045556e-06</v>
+        <v>3.86219120924177e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.05092592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>292354.7674821533</v>
+        <v>359542.1377695056</v>
       </c>
     </row>
   </sheetData>
@@ -3579,28 +3579,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>282.1496462740582</v>
+        <v>346.2360295134432</v>
       </c>
       <c r="AB2" t="n">
-        <v>386.0495935960561</v>
+        <v>473.735410435871</v>
       </c>
       <c r="AC2" t="n">
-        <v>349.2055622072553</v>
+        <v>428.5227677556952</v>
       </c>
       <c r="AD2" t="n">
-        <v>282149.6462740581</v>
+        <v>346236.0295134432</v>
       </c>
       <c r="AE2" t="n">
-        <v>386049.5935960561</v>
+        <v>473735.410435871</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.256022170631814e-06</v>
+        <v>3.409512699141489e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.87847222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>349205.5622072553</v>
+        <v>428522.7677556952</v>
       </c>
     </row>
     <row r="3">
@@ -3685,28 +3685,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>240.3441665624307</v>
+        <v>296.3238329440535</v>
       </c>
       <c r="AB3" t="n">
-        <v>328.8494919268538</v>
+        <v>405.4433411189266</v>
       </c>
       <c r="AC3" t="n">
-        <v>297.4645579606133</v>
+        <v>366.7483976858388</v>
       </c>
       <c r="AD3" t="n">
-        <v>240344.1665624307</v>
+        <v>296323.8329440535</v>
       </c>
       <c r="AE3" t="n">
-        <v>328849.4919268538</v>
+        <v>405443.3411189266</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.493055580523386e-06</v>
+        <v>3.767739861829252e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.46064814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>297464.5579606133</v>
+        <v>366748.3976858387</v>
       </c>
     </row>
   </sheetData>
@@ -3982,28 +3982,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.1998969541469</v>
+        <v>289.5850491967073</v>
       </c>
       <c r="AB2" t="n">
-        <v>313.6014105983314</v>
+        <v>396.2230399016506</v>
       </c>
       <c r="AC2" t="n">
-        <v>283.6717321132637</v>
+        <v>358.4080690759656</v>
       </c>
       <c r="AD2" t="n">
-        <v>229199.8969541469</v>
+        <v>289585.0491967073</v>
       </c>
       <c r="AE2" t="n">
-        <v>313601.4105983314</v>
+        <v>396223.0399016506</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.452470866140346e-06</v>
+        <v>3.876100750599763e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.85532407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>283671.7321132637</v>
+        <v>358408.0690759656</v>
       </c>
     </row>
   </sheetData>
@@ -4279,28 +4279,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>479.4440179437392</v>
+        <v>564.1005036135709</v>
       </c>
       <c r="AB2" t="n">
-        <v>655.9964569278932</v>
+        <v>771.8271954019169</v>
       </c>
       <c r="AC2" t="n">
-        <v>593.3890757755041</v>
+        <v>698.1650911390296</v>
       </c>
       <c r="AD2" t="n">
-        <v>479444.0179437392</v>
+        <v>564100.5036135709</v>
       </c>
       <c r="AE2" t="n">
-        <v>655996.4569278932</v>
+        <v>771827.195401917</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.650403662659956e-06</v>
+        <v>2.406100870956289e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.87731481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>593389.0757755041</v>
+        <v>698165.0911390296</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>313.9086659527026</v>
+        <v>373.1426931737643</v>
       </c>
       <c r="AB3" t="n">
-        <v>429.5036854294402</v>
+        <v>510.5502946941459</v>
       </c>
       <c r="AC3" t="n">
-        <v>388.5124565042623</v>
+        <v>461.8240911303749</v>
       </c>
       <c r="AD3" t="n">
-        <v>313908.6659527026</v>
+        <v>373142.6931737643</v>
       </c>
       <c r="AE3" t="n">
-        <v>429503.6854294402</v>
+        <v>510550.2946941459</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.194956647494811e-06</v>
+        <v>3.199997201131212e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.19560185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>388512.4565042623</v>
+        <v>461824.0911303749</v>
       </c>
     </row>
     <row r="4">
@@ -4491,28 +4491,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>269.3744693061266</v>
+        <v>320.2196547293196</v>
       </c>
       <c r="AB4" t="n">
-        <v>368.5700328675013</v>
+        <v>438.1386586947825</v>
       </c>
       <c r="AC4" t="n">
-        <v>333.3942262219161</v>
+        <v>396.3233200404213</v>
       </c>
       <c r="AD4" t="n">
-        <v>269374.4693061266</v>
+        <v>320219.6547293196</v>
       </c>
       <c r="AE4" t="n">
-        <v>368570.0328675013</v>
+        <v>438138.6586947825</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.386147832896093e-06</v>
+        <v>3.478732208887901e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.05555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>333394.2262219161</v>
+        <v>396323.3200404213</v>
       </c>
     </row>
     <row r="5">
@@ -4597,28 +4597,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>270.1145824513586</v>
+        <v>320.9597678745516</v>
       </c>
       <c r="AB5" t="n">
-        <v>369.5826883242952</v>
+        <v>439.1513141515765</v>
       </c>
       <c r="AC5" t="n">
-        <v>334.3102352631846</v>
+        <v>397.2393290816897</v>
       </c>
       <c r="AD5" t="n">
-        <v>270114.5824513586</v>
+        <v>320959.7678745516</v>
       </c>
       <c r="AE5" t="n">
-        <v>369582.6883242952</v>
+        <v>439151.3141515764</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.385394051821574e-06</v>
+        <v>3.477633281794521e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.06134259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>334310.2352631846</v>
+        <v>397239.3290816897</v>
       </c>
     </row>
   </sheetData>
@@ -4894,28 +4894,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>233.577905427138</v>
+        <v>293.0608012754913</v>
       </c>
       <c r="AB2" t="n">
-        <v>319.5915949351772</v>
+        <v>400.9787172352025</v>
       </c>
       <c r="AC2" t="n">
-        <v>289.0902216642795</v>
+        <v>362.7098712394382</v>
       </c>
       <c r="AD2" t="n">
-        <v>233577.905427138</v>
+        <v>293060.8012754913</v>
       </c>
       <c r="AE2" t="n">
-        <v>319591.5949351772</v>
+        <v>400978.7172352024</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.395828262625722e-06</v>
+        <v>3.838679651222117e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.56134259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>289090.2216642795</v>
+        <v>362709.8712394382</v>
       </c>
     </row>
   </sheetData>
@@ -5191,28 +5191,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>362.6259906698141</v>
+        <v>428.4064418995768</v>
       </c>
       <c r="AB2" t="n">
-        <v>496.1608783640719</v>
+        <v>586.1645937653266</v>
       </c>
       <c r="AC2" t="n">
-        <v>448.8079804991706</v>
+        <v>530.2218676235373</v>
       </c>
       <c r="AD2" t="n">
-        <v>362625.9906698142</v>
+        <v>428406.4418995768</v>
       </c>
       <c r="AE2" t="n">
-        <v>496160.8783640719</v>
+        <v>586164.5937653265</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.966390221815583e-06</v>
+        <v>2.919781143764782e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.47569444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>448807.9804991706</v>
+        <v>530221.8676235373</v>
       </c>
     </row>
     <row r="3">
@@ -5297,28 +5297,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>253.0282034339313</v>
+        <v>310.4901009871526</v>
       </c>
       <c r="AB3" t="n">
-        <v>346.2043507546458</v>
+        <v>424.8262540271325</v>
       </c>
       <c r="AC3" t="n">
-        <v>313.1630934195837</v>
+        <v>384.2814325901745</v>
       </c>
       <c r="AD3" t="n">
-        <v>253028.2034339313</v>
+        <v>310490.1009871525</v>
       </c>
       <c r="AE3" t="n">
-        <v>346204.3507546458</v>
+        <v>424826.2540271325</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.448681723172384e-06</v>
+        <v>3.635908398587788e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.22916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>313163.0934195837</v>
+        <v>384281.4325901745</v>
       </c>
     </row>
     <row r="4">
@@ -5403,28 +5403,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>253.4045626042308</v>
+        <v>310.8664601574521</v>
       </c>
       <c r="AB4" t="n">
-        <v>346.7193019752442</v>
+        <v>425.3412052477312</v>
       </c>
       <c r="AC4" t="n">
-        <v>313.628898418427</v>
+        <v>384.7472375890179</v>
       </c>
       <c r="AD4" t="n">
-        <v>253404.5626042308</v>
+        <v>310866.4601574522</v>
       </c>
       <c r="AE4" t="n">
-        <v>346719.3019752442</v>
+        <v>425341.2052477312</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.451872370291388e-06</v>
+        <v>3.640646009256881e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.21180555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>313628.898418427</v>
+        <v>384747.2375890178</v>
       </c>
     </row>
   </sheetData>
@@ -5700,28 +5700,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>418.7851959284191</v>
+        <v>494.0117510232394</v>
       </c>
       <c r="AB2" t="n">
-        <v>573.0003805681731</v>
+        <v>675.9286720102906</v>
       </c>
       <c r="AC2" t="n">
-        <v>518.314028457831</v>
+        <v>611.4189882254769</v>
       </c>
       <c r="AD2" t="n">
-        <v>418785.1959284191</v>
+        <v>494011.7510232394</v>
       </c>
       <c r="AE2" t="n">
-        <v>573000.3805681731</v>
+        <v>675928.6720102906</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.798606207294551e-06</v>
+        <v>2.644746970454485e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.64467592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>518314.028457831</v>
+        <v>611418.9882254769</v>
       </c>
     </row>
     <row r="3">
@@ -5806,28 +5806,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>277.6539079604411</v>
+        <v>336.1634508119681</v>
       </c>
       <c r="AB3" t="n">
-        <v>379.8983260973889</v>
+        <v>459.9536638857024</v>
       </c>
       <c r="AC3" t="n">
-        <v>343.6413630453027</v>
+        <v>416.0563317534719</v>
       </c>
       <c r="AD3" t="n">
-        <v>277653.9079604411</v>
+        <v>336163.4508119681</v>
       </c>
       <c r="AE3" t="n">
-        <v>379898.3260973889</v>
+        <v>459953.6638857024</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.325178696049658e-06</v>
+        <v>3.419041526267547e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.65162037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>343641.3630453027</v>
+        <v>416056.3317534719</v>
       </c>
     </row>
     <row r="4">
@@ -5912,28 +5912,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>261.5888392171274</v>
+        <v>311.7399654555586</v>
       </c>
       <c r="AB4" t="n">
-        <v>357.9173903019745</v>
+        <v>426.5363737329345</v>
       </c>
       <c r="AC4" t="n">
-        <v>323.7582569117656</v>
+        <v>385.8283408714228</v>
       </c>
       <c r="AD4" t="n">
-        <v>261588.8392171274</v>
+        <v>311739.9654555586</v>
       </c>
       <c r="AE4" t="n">
-        <v>357917.3903019745</v>
+        <v>426536.3737329345</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.416057835083844e-06</v>
+        <v>3.55267407277127e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.13657407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>323758.2569117656</v>
+        <v>385828.3408714228</v>
       </c>
     </row>
   </sheetData>
@@ -6209,28 +6209,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>555.6789500122013</v>
+        <v>641.4136507494725</v>
       </c>
       <c r="AB2" t="n">
-        <v>760.3044542317996</v>
+        <v>877.6104541285857</v>
       </c>
       <c r="AC2" t="n">
-        <v>687.7420642139194</v>
+        <v>793.8525441205613</v>
       </c>
       <c r="AD2" t="n">
-        <v>555678.9500122013</v>
+        <v>641413.6507494724</v>
       </c>
       <c r="AE2" t="n">
-        <v>760304.4542317996</v>
+        <v>877610.4541285858</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.514086254070611e-06</v>
+        <v>2.190538365109428e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.23148148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>687742.0642139195</v>
+        <v>793852.5441205613</v>
       </c>
     </row>
     <row r="3">
@@ -6315,28 +6315,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>341.9487267680524</v>
+        <v>410.5193475801142</v>
       </c>
       <c r="AB3" t="n">
-        <v>467.869333677179</v>
+        <v>561.6906821945298</v>
       </c>
       <c r="AC3" t="n">
-        <v>423.2165411297624</v>
+        <v>508.0837118237069</v>
       </c>
       <c r="AD3" t="n">
-        <v>341948.7267680524</v>
+        <v>410519.3475801142</v>
       </c>
       <c r="AE3" t="n">
-        <v>467869.3336771791</v>
+        <v>561690.6821945298</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.076978430551601e-06</v>
+        <v>3.004915290259197e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.75115740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>423216.5411297624</v>
+        <v>508083.7118237069</v>
       </c>
     </row>
     <row r="4">
@@ -6421,28 +6421,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>289.0326068328918</v>
+        <v>348.9359810906039</v>
       </c>
       <c r="AB4" t="n">
-        <v>395.4671638874412</v>
+        <v>477.4296032971992</v>
       </c>
       <c r="AC4" t="n">
-        <v>357.7243328076736</v>
+        <v>431.8643920351703</v>
       </c>
       <c r="AD4" t="n">
-        <v>289032.6068328918</v>
+        <v>348935.9810906039</v>
       </c>
       <c r="AE4" t="n">
-        <v>395467.1638874412</v>
+        <v>477429.6032971991</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.299160172740138e-06</v>
+        <v>3.326361726340602e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.3275462962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>357724.3328076736</v>
+        <v>431864.3920351703</v>
       </c>
     </row>
     <row r="5">
@@ -6527,28 +6527,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>277.8661357687563</v>
+        <v>329.3581965272824</v>
       </c>
       <c r="AB5" t="n">
-        <v>380.1887055475557</v>
+        <v>450.6424147467654</v>
       </c>
       <c r="AC5" t="n">
-        <v>343.9040290882958</v>
+        <v>407.6337351639348</v>
       </c>
       <c r="AD5" t="n">
-        <v>277866.1357687563</v>
+        <v>329358.1965272824</v>
       </c>
       <c r="AE5" t="n">
-        <v>380188.7055475558</v>
+        <v>450642.4147467654</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.353951238540743e-06</v>
+        <v>3.405631933951814e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.0150462962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>343904.0290882958</v>
+        <v>407633.7351639348</v>
       </c>
     </row>
   </sheetData>
@@ -6824,28 +6824,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>310.9248187651432</v>
+        <v>375.5207004301425</v>
       </c>
       <c r="AB2" t="n">
-        <v>425.4210540693742</v>
+        <v>513.8039891325985</v>
       </c>
       <c r="AC2" t="n">
-        <v>384.8194657511917</v>
+        <v>464.7672575382105</v>
       </c>
       <c r="AD2" t="n">
-        <v>310924.8187651432</v>
+        <v>375520.7004301425</v>
       </c>
       <c r="AE2" t="n">
-        <v>425421.0540693742</v>
+        <v>513803.9891325985</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.153392032777583e-06</v>
+        <v>3.233715683607244e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.39351851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>384819.4657511917</v>
+        <v>464767.2575382105</v>
       </c>
     </row>
     <row r="3">
@@ -6930,28 +6930,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>244.3629882771994</v>
+        <v>300.8630607090028</v>
       </c>
       <c r="AB3" t="n">
-        <v>334.3482210948986</v>
+        <v>411.6541128035259</v>
       </c>
       <c r="AC3" t="n">
-        <v>302.4384961343766</v>
+        <v>372.3664220377325</v>
       </c>
       <c r="AD3" t="n">
-        <v>244362.9882771994</v>
+        <v>300863.0607090028</v>
       </c>
       <c r="AE3" t="n">
-        <v>334348.2210948986</v>
+        <v>411654.1128035259</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.481497962452657e-06</v>
+        <v>3.72642730997389e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.35648148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>302438.4961343766</v>
+        <v>372366.4220377326</v>
       </c>
     </row>
   </sheetData>
@@ -7227,28 +7227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>235.0836532317232</v>
+        <v>297.7785074592264</v>
       </c>
       <c r="AB2" t="n">
-        <v>321.6518255103146</v>
+        <v>407.4336909662965</v>
       </c>
       <c r="AC2" t="n">
-        <v>290.953826724878</v>
+        <v>368.5487913372491</v>
       </c>
       <c r="AD2" t="n">
-        <v>235083.6532317232</v>
+        <v>297778.5074592264</v>
       </c>
       <c r="AE2" t="n">
-        <v>321651.8255103145</v>
+        <v>407433.6909662965</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.477335882795092e-06</v>
+        <v>3.799605856125015e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.93518518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>290953.826724878</v>
+        <v>368548.7913372491</v>
       </c>
     </row>
     <row r="3">
@@ -7333,28 +7333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>233.2316911229648</v>
+        <v>288.2390350675308</v>
       </c>
       <c r="AB3" t="n">
-        <v>319.1178892503107</v>
+        <v>394.3813639881589</v>
       </c>
       <c r="AC3" t="n">
-        <v>288.6617257851262</v>
+        <v>356.7421601268489</v>
       </c>
       <c r="AD3" t="n">
-        <v>233231.6911229648</v>
+        <v>288239.0350675308</v>
       </c>
       <c r="AE3" t="n">
-        <v>319117.8892503107</v>
+        <v>394381.3639881589</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.499528459696305e-06</v>
+        <v>3.833643648796558e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.81365740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>288661.7257851262</v>
+        <v>356742.160126849</v>
       </c>
     </row>
   </sheetData>
@@ -12371,28 +12371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>232.1326296447924</v>
+        <v>285.7251989294145</v>
       </c>
       <c r="AB2" t="n">
-        <v>317.6141048487054</v>
+        <v>390.941822481365</v>
       </c>
       <c r="AC2" t="n">
-        <v>287.3014604562351</v>
+        <v>353.6308836340368</v>
       </c>
       <c r="AD2" t="n">
-        <v>232132.6296447924</v>
+        <v>285725.1989294146</v>
       </c>
       <c r="AE2" t="n">
-        <v>317614.1048487055</v>
+        <v>390941.8224813649</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.486968182810335e-06</v>
+        <v>3.885838729284629e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.35763888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>287301.4604562351</v>
+        <v>353630.8836340368</v>
       </c>
     </row>
   </sheetData>
@@ -12668,28 +12668,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>240.2388074753878</v>
+        <v>305.7792720533014</v>
       </c>
       <c r="AB2" t="n">
-        <v>328.7053349758469</v>
+        <v>418.3806900527325</v>
       </c>
       <c r="AC2" t="n">
-        <v>297.3341591466849</v>
+        <v>378.4510241950854</v>
       </c>
       <c r="AD2" t="n">
-        <v>240238.8074753878</v>
+        <v>305779.2720533015</v>
       </c>
       <c r="AE2" t="n">
-        <v>328705.3349758469</v>
+        <v>418380.6900527325</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.267814463125565e-06</v>
+        <v>3.695803104844801e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.90393518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>297334.1591466849</v>
+        <v>378451.0241950855</v>
       </c>
     </row>
   </sheetData>
@@ -12965,28 +12965,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>393.7475174621516</v>
+        <v>460.1251720844722</v>
       </c>
       <c r="AB2" t="n">
-        <v>538.7427243062095</v>
+        <v>629.5635597359161</v>
       </c>
       <c r="AC2" t="n">
-        <v>487.3258748285866</v>
+        <v>569.4788971927252</v>
       </c>
       <c r="AD2" t="n">
-        <v>393747.5174621516</v>
+        <v>460125.1720844723</v>
       </c>
       <c r="AE2" t="n">
-        <v>538742.7243062096</v>
+        <v>629563.5597359161</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.882423872156828e-06</v>
+        <v>2.781056895162485e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.03125</v>
       </c>
       <c r="AH2" t="n">
-        <v>487325.8748285866</v>
+        <v>569478.8971927252</v>
       </c>
     </row>
     <row r="3">
@@ -13071,28 +13071,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>264.1644917063178</v>
+        <v>322.074268980274</v>
       </c>
       <c r="AB3" t="n">
-        <v>361.4415116674531</v>
+        <v>440.6762237327445</v>
       </c>
       <c r="AC3" t="n">
-        <v>326.9460410802583</v>
+        <v>398.6187034326551</v>
       </c>
       <c r="AD3" t="n">
-        <v>264164.4917063179</v>
+        <v>322074.268980274</v>
       </c>
       <c r="AE3" t="n">
-        <v>361441.5116674531</v>
+        <v>440676.2237327445</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.393646834112376e-06</v>
+        <v>3.536327886112507e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.3912037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>326946.0410802583</v>
+        <v>398618.7034326551</v>
       </c>
     </row>
     <row r="4">
@@ -13177,28 +13177,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>257.1676722123858</v>
+        <v>306.9509355562673</v>
       </c>
       <c r="AB4" t="n">
-        <v>351.8681545577983</v>
+        <v>419.9838117476361</v>
       </c>
       <c r="AC4" t="n">
-        <v>318.2863517369637</v>
+        <v>379.9011462054227</v>
       </c>
       <c r="AD4" t="n">
-        <v>257167.6722123858</v>
+        <v>306950.9355562673</v>
       </c>
       <c r="AE4" t="n">
-        <v>351868.1545577983</v>
+        <v>419983.8117476361</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.437075028084979e-06</v>
+        <v>3.600487866273393e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.15393518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>318286.3517369637</v>
+        <v>379901.1462054227</v>
       </c>
     </row>
   </sheetData>
@@ -13474,28 +13474,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>516.034210443411</v>
+        <v>601.3240388504775</v>
       </c>
       <c r="AB2" t="n">
-        <v>706.0607725513094</v>
+        <v>822.7580784995274</v>
       </c>
       <c r="AC2" t="n">
-        <v>638.6753233815298</v>
+        <v>744.2352022357474</v>
       </c>
       <c r="AD2" t="n">
-        <v>516034.210443411</v>
+        <v>601324.0388504774</v>
       </c>
       <c r="AE2" t="n">
-        <v>706060.7725513093</v>
+        <v>822758.0784995274</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.582300602284835e-06</v>
+        <v>2.297767908048849e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.52546296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>638675.3233815298</v>
+        <v>744235.2022357474</v>
       </c>
     </row>
     <row r="3">
@@ -13580,28 +13580,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>327.3233323891425</v>
+        <v>386.9409609280684</v>
       </c>
       <c r="AB3" t="n">
-        <v>447.8582238610924</v>
+        <v>529.4296933721959</v>
       </c>
       <c r="AC3" t="n">
-        <v>405.115263548754</v>
+        <v>478.9016664959942</v>
       </c>
       <c r="AD3" t="n">
-        <v>327323.3323891425</v>
+        <v>386940.9609280684</v>
       </c>
       <c r="AE3" t="n">
-        <v>447858.2238610924</v>
+        <v>529429.6933721958</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.138718693510997e-06</v>
+        <v>3.105781019862808e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.44444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>405115.263548754</v>
+        <v>478901.6664959941</v>
       </c>
     </row>
     <row r="4">
@@ -13686,28 +13686,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>277.4154659053661</v>
+        <v>328.5894524581571</v>
       </c>
       <c r="AB4" t="n">
-        <v>379.5720791583143</v>
+        <v>449.5905851967934</v>
       </c>
       <c r="AC4" t="n">
-        <v>343.3462526562029</v>
+        <v>406.6822907499601</v>
       </c>
       <c r="AD4" t="n">
-        <v>277415.4659053662</v>
+        <v>328589.4524581571</v>
       </c>
       <c r="AE4" t="n">
-        <v>379572.0791583143</v>
+        <v>449590.5851967934</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.349830891400431e-06</v>
+        <v>3.412351612459144e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.14814814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>343346.2526562029</v>
+        <v>406682.2907499601</v>
       </c>
     </row>
     <row r="5">
@@ -13792,28 +13792,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>273.4527567448752</v>
+        <v>324.6267432976661</v>
       </c>
       <c r="AB5" t="n">
-        <v>374.1501256625407</v>
+        <v>444.1686317010198</v>
       </c>
       <c r="AC5" t="n">
-        <v>338.4417627923064</v>
+        <v>401.7778008860636</v>
       </c>
       <c r="AD5" t="n">
-        <v>273452.7567448752</v>
+        <v>324626.7432976661</v>
       </c>
       <c r="AE5" t="n">
-        <v>374150.1256625407</v>
+        <v>444168.6317010198</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.372783671449093e-06</v>
+        <v>3.445682928468354e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.02083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>338441.7627923064</v>
+        <v>401777.8008860636</v>
       </c>
     </row>
   </sheetData>
@@ -14089,28 +14089,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>264.7124260248027</v>
+        <v>335.8690657274138</v>
       </c>
       <c r="AB2" t="n">
-        <v>362.1912195751602</v>
+        <v>459.550873225662</v>
       </c>
       <c r="AC2" t="n">
-        <v>327.6241979174755</v>
+        <v>415.6919828687055</v>
       </c>
       <c r="AD2" t="n">
-        <v>264712.4260248027</v>
+        <v>335869.0657274138</v>
       </c>
       <c r="AE2" t="n">
-        <v>362191.2195751602</v>
+        <v>459550.873225662</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.007648724890915e-06</v>
+        <v>3.346630810605859e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.76851851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>327624.1979174755</v>
+        <v>415691.9828687055</v>
       </c>
     </row>
   </sheetData>
@@ -14386,28 +14386,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>261.3962312902661</v>
+        <v>316.9087667749567</v>
       </c>
       <c r="AB2" t="n">
-        <v>357.6538556391808</v>
+        <v>433.6085557295553</v>
       </c>
       <c r="AC2" t="n">
-        <v>323.5198736273157</v>
+        <v>392.225563744156</v>
       </c>
       <c r="AD2" t="n">
-        <v>261396.2312902661</v>
+        <v>316908.7667749567</v>
       </c>
       <c r="AE2" t="n">
-        <v>357653.8556391808</v>
+        <v>433608.5557295553</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.370504817424003e-06</v>
+        <v>3.607686978461118e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.35185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>323519.8736273157</v>
+        <v>392225.563744156</v>
       </c>
     </row>
     <row r="3">
@@ -14492,28 +14492,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>236.5807822072089</v>
+        <v>292.178569037923</v>
       </c>
       <c r="AB3" t="n">
-        <v>323.7002634232419</v>
+        <v>399.771608166422</v>
       </c>
       <c r="AC3" t="n">
-        <v>292.806764598397</v>
+        <v>361.6179669659938</v>
       </c>
       <c r="AD3" t="n">
-        <v>236580.7822072089</v>
+        <v>292178.5690379229</v>
       </c>
       <c r="AE3" t="n">
-        <v>323700.2634232419</v>
+        <v>399771.608166422</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.499603063563008e-06</v>
+        <v>3.804162454112746e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.61111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>292806.764598397</v>
+        <v>361617.9669659939</v>
       </c>
     </row>
   </sheetData>
@@ -14789,28 +14789,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>332.5839467082516</v>
+        <v>405.909255376389</v>
       </c>
       <c r="AB2" t="n">
-        <v>455.0560284544218</v>
+        <v>555.3829506584791</v>
       </c>
       <c r="AC2" t="n">
-        <v>411.6261197738781</v>
+        <v>502.3779813325</v>
       </c>
       <c r="AD2" t="n">
-        <v>332583.9467082516</v>
+        <v>405909.255376389</v>
       </c>
       <c r="AE2" t="n">
-        <v>455056.0284544218</v>
+        <v>555382.9506584791</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.054698813075692e-06</v>
+        <v>3.067481831033679e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.94328703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>411626.1197738781</v>
+        <v>502377.9813325</v>
       </c>
     </row>
     <row r="3">
@@ -14895,28 +14895,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>248.4418900982095</v>
+        <v>305.4348459688387</v>
       </c>
       <c r="AB3" t="n">
-        <v>339.92915451485</v>
+        <v>417.9094310889642</v>
       </c>
       <c r="AC3" t="n">
-        <v>307.4867931016189</v>
+        <v>378.024741525403</v>
       </c>
       <c r="AD3" t="n">
-        <v>248441.8900982095</v>
+        <v>305434.8459688387</v>
       </c>
       <c r="AE3" t="n">
-        <v>339929.1545148501</v>
+        <v>417909.4310889642</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.465276334701251e-06</v>
+        <v>3.680437403793261e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.28703703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>307486.7931016189</v>
+        <v>378024.741525403</v>
       </c>
     </row>
   </sheetData>
